--- a/data/output_excels/2028-11-03_to_2028-11-09/SEBI.xlsx
+++ b/data/output_excels/2028-11-03_to_2028-11-09/SEBI.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Informal Guidance" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regulations" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,105 +486,89 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Informal Guidance</t>
+          <t>Regulations</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>February</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>In the matter of Welspun Corp Limited under SEBI (Prohibition of Insider Trading) Regulations, 2015.</t>
+          <t xml:space="preserve">IFSCA (Fund Management) (Amendment) Regulations, 2026
+</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.sebi.gov.in/sebi_data/commondocs/nov-2025/welspun%20Informal%20Guidance%20Letter_p.pdf</t>
+          <t>https://ifsca.gov.in/CommonDirect/DownloadFile?id=36ff47aaeb9222f627d166fe86841979&amp;fileName=106_IFSCA__Fund_Management___Amendment__Regulations__2026_20260202_0720.pdf</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>In_the_matter_of_Welspun_Corp_Limited_under_SEBI_Prohibition_of_Insider_Trading_e492a06c.pdf</t>
+          <t>106_IFSCA__Fund_Management___Amendment__Regulations__2026_20260202_0720.pdf</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Informal Guidance/2025/November/In_the_matter_of_Welspun_Corp_Limited_under_SEBI_Prohibition_of_Insider_Trading_e492a06c.pdf</t>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Regulations/2026/February/106_IFSCA__Fund_Management___Amendment__Regulations__2026_20260202_0720.pdf</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>• Informal guidance issued by SEBI in the matter of Welspun Corp Limited:
-   - Revocation/release of pledge on 5,25,000 equity shares acquired through exercise of Stock Options under the company’s ESOS will be treated as a 'trade' under PIT Regulations.
-   - Proposed transaction of revocation of pledge on 5,25,000 equity shares within six months of creation of pledge on 8,72,500 shares will not attract contra trade restrictions, provided it is bonafide and subject to pre-clearance by the compliance officer.</t>
+          <t>• SEBI has amended the International Financial Services Centres Authority (Fund Management) Regulations, 2025 with the addition of the International Financial Services Centres Authority (Fund Management) (Amendment) Regulations, 2026.
+• Effective from publication in the Official Gazette, these regulations introduce changes to improve governance and investor protection.
+• Key updates include:
+   - Increased experience requirements for Key Management Personnel (KMP): At least five years for all KMPs, except those referred under sub-regulation (2), who now require a minimum of three years of experience if they possess a professional qualification. Individuals with post-qualification experience of at least two or three years in an eligible institution may also be eligible for certain KMP roles.
+   - Minimum corpus requirements: Fund Management Entities (FMEs) must now achieve a minimum size of corpus of USD 3 Million before investing in unlisted securities, and if they fail to do so within the specified time period, they may extend the validity of their placement memorandum for six months at a time, with each extension incurring increasing fees.
+   - Appointment of custodian: FMEs that are required to appoint a custodian must now make this appointment within 24 months from the date of the new regulations' commencement. During this period, they may appoint an independent custodian regulated by a foreign financial sector regulator.
+• These changes aim to ensure greater accountability, transparency, and enhanced investor protection in the fund management industry under the International Financial Services Centres Authority (IFSCA).</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>S=5| fy
-wuvdta visa siz fafiug ag Securities and Exchange Board of India
-Deputy Generali Manager Integrated Surveillance Department
-SEBI/HO/ISD/OW/2025/20748/1 August 04, 2025
-Welspun Corp Limited Welspun City, Village Versamedi, Taluka Anjar District Kutch, Gujarat- 370110
-Kind Attention: Mr. Kamal Rathi, Company Secretary &amp; Compliance Officer
-Sir,
-Sub: Request for interpretive letter under the Securities and Exchange Board of India (Informal Guidance) Scheme, 2003
-Ref: Your letter dated June 05, 2025
-14. In your letter under reference, you have inter alia represented as follows:
-1.1. Pursuant to the company’s Employee Stock Option Scheme 2005 (‘ESOS’), Mr. Vipul Mathur, Managing Director and CEO (‘MD’) of the company, was granted Stock Options from time to time.
-1.2. On June 12, 2024, the MD availed a loan from a Non-Banking Financial Company (NBFC) to exercise the Stock Options for 5,25,000 equity shares at an exercise price of Rs. 100 each and created a pledge over the said equity shares allotted upon the exercise, in the favour of the said NBFC.
-4.3. The MD further availed a loan from the same NBFC on June 02, 2025, to exercise the Stock Options for 8,72,500 equity shares at an exercise price of Rs. 100 each and created a pledge over the said equity shares allotted upon the exercise, in favour of the said NBFC.
-14.4. MD has expressed his intent to release the pledge created over 5,25,000 equity shares (created on June 12, 2024) and subsequently sell these shares in the open market and utilize part of the proceeds to repay the loan availed for the purpose of exercising the stock options. The trading window is open now and the MD does not possess any Unpublished Price Sensitive Information.
-1.5. The proposed transaction (release/ revocation of pledge and sale of shares) would be undertaken only upon obtaining pre-clearance from the Compliance Officer, in accordance with the Company's Code of Conduct framed under the
-under the
-al va, "SH" sale sial-Het Sra, Yas — yoo o48 SEBI Bhavan, “G” Block, Bandra Kurla Complex, Mumbai — 400 051 www.sebi.gov.in | 022 - 2644 9000 / 4045 9000
--
-P — G=5|
-ania wy ot Bae aE Securities and Exchange Board of India
-arya Continuation:
-Securities and Exchange Board of India (Prohibition of Insider Trading) Regulations, 2015 (‘PIT Regulations’).
-2. In view of the above, you have sought guidance in the form of an interpretive letter under the Securities and Exchange Board of India (Informal Guidance) Scheme, 2003 from SEBI on the following queries:
-2.1. Query 1: Whether the revocation/ release of the pledge on 5,25,000 equity shares allotted/ acquired through exercise of Stock Options under the company’s ESOS in June 2024 would be treated as a “trade” under the PIT Regulations.
-2.2. Query 2: Whether such revocation would be construed as a “contra trade” against creation of pledge on June 02, 2025 under the provisions of the PIT Regulations, considering that the creation of pledge is deemed to be a trade as per SEBI’s FAQs on the PIT Regulations.
-2.3. Query 3: If the revocation of pledge is not considered as a contra trade, whether the subsequent sale of 5,25,000 equity shares, which were allotted through exercise of Stock Options under the company’s ESOS in June 2024, in the open market, immediately after the revocation of pledge, would be considered as a contra trade against revocation/ release of pledged shares to be obtained.
-2.4. Query 4: If the revocation of pledge and subsequent sale being intended to repay the loan taken for exercising such options, can the compliance officer under the proviso to Regulation 4(1) of the PIT Regulations, grant pre-clearance for the revocation of pledge and subsequent sale of 5,25,000 shares, by treating it as a bona fide transaction and not violative of the contra trade restrictions?
-3. We have considered the submissions made by you in your letter and without necessarily agreeing with your analysis, our view on the queries raised in your letter are as under:
-PIT
-3.1. Regulation 2(1)(I) and Clause 6 of Schedule B read with Regulation 9(1) of Regulations states that:
-.
-S aia . S=3sI
-ara afta he it urvdira waa t fafraa ats Securities and Exchange Board of India
-. aga: Continuation:
-Regulation 2(1)(I)- "trading" means and includes subscribing, redeeming, switching, buying, selling, dealing, or agreeing to subscribe, redeem, switch, buy, sell, deal in any securities, and "trade" shall be construed accordingly;
-NOTE: Under the parliamentary mandate, since the Section 12A (e) and Section 15G of the Act employs the term ‘dealing in securities’, it is intended to widely define the term “trading” to include dealing. Such a construction is intended to curb the activities based on unpublished price sensitive information which are strictly not buying, selling or subscribing, such as pledging etc when in possession of unpublished price sensitive information.
-Clause 6 of the Schedule B r/w Regulation 9 (1)- When the trading window is open, trading by designated persons shall be subject to pre-clearance by the compliance officer, if the value of the proposed trades is above such thresholds as the board of directors may stipulate.
-3.2.With respect to Query 1:
-3.2.1. Reference may be made to the Comprehensive FAQs on PIT Regulations dated December 31, 2024 which states as follows:
-4. Question: Whether creation of pledge, invocation of pledge and revocation of pledge can be deemed as trading?
-Answer: Trading as defined under Regulation 2(1)(I) means and includes subscribing, buying, selling, dealing, or agreeing to subscribe, buy, sell, deal in any securities, and "trade" shall be construed accordingly. The term trading is widely defined to include dealing in securities and intended to curb the activities based on unpublished price sensitive information (UPSI) which are strictly not buying, selling or subscribing, such as pledging etc. Hence, trading would include creation/invocation/revocation of pledge.
-3.2.2. Therefore, while pledge or un-pledge of shares are strictly not buying, selling or subscribing of shares, but are considered as ‘dealing’ in securities and thus the same falls under the ambit of ‘trading’ as per regulation 2(1)(I) of PIT Regulations. Hence, the release/ revocation of pledge on 5,25,000 equity shares (acquired through exercise of stock options by the MD) would be treated as a ‘trade’ under the PIT Regulations.
-.
-|
-sata Nara ||
-arrda wfsyfa siz fafa as Securities and Exchange Board of India
-arqadt: Continuation:
-3.3.With respect to Query 2:
-3.3.1.Pledge and un-pledge/ revocation of shares are ‘opposite trades’. However, in case of creation of pledge/ revocation, the beneficial ownership does not change until the pledge is invoked. Therefore, revocation of pledge within six months of creation of pledge of shares shall not trigger contra trade restrictions under PIT Regulations.
-3.3.2. In view of the same, the proposed transaction of revocation of the pledge on 5,25,000 equity shares created on June 12, 2024, within six months of creation of pledge on 8,72, 500 shares on June 02, 2025, would not attract contra trade restrictions, provided the MD proves that the transaction is bonafide and subject to grant of pre-clearance by the compliance officer as per Clause 6 of Schedule B read with regulation 9(1) of PIT Regulations and compliance with other provisions of the PIT Regulations.
-3.4.With respect to Query 3:
-3.4.1.Sale of shares allotted through exercise of ESOPs, immediately after revocation of pledge thereon, would not attract contra trade restrictions subject to MD proving that it is bonafide and subject to grant of pre-clearance by the compliance officer as per Clause 6 of Schedule B read with regulation 9(1) of PIT Regulations and compliance with other provisions of the PIT Regulations.
-3.5.With respect to Query 4:
-3.5.1.In the instant matter, the MD intends to sell the shares allotted to him under ESOP (within six months of revocation of pledge) and utilize part of the sa</t>
+          <t>(1) These regulations may be called the International Financial Services Centres Authority (Fund Management) (Amendment) Regulations, 2026.
+(2) These regulations shall come into force on the date of their publication in the Official Gazette.
+In regulation 7 of the principal regulations, in sub-regulation (5), for clause (b), the following clause shall be substituted, namely: -
+“In addition to the qualifications mentioned under clause (a), an experience of at least five (5) years in related activities in the securities market or financial products in an eligible institution:
+Provided that for the KMP referred under sub-regulation (2), the experience mentioned in clause (b) shall be required for a minimum period of 3 (three) years, if such KMP possesses a professional qualification:
+Provided further that an individual with post-qualification experience of at least 2 (two) years in an eligible institution in IFSC, India or any foreign jurisdiction and who holds valid certification(s), as specified by the Authority, shall be considered eligible for the KMP referred under sub-regulation (2):
+Provided also that individuals with a post-qualification experience of at least 3 (three) years in an eligible institution in IFSC, India or any foreign jurisdiction and who holds valid certification(s), as specified by the Authority, shall be considered eligible for the KMP referred under sub-regulations (1), (3) and (4).
+Explanation. – For the purpose of this clause, “eligible institution” shall include the following -
+i) Market Infrastructure Institutions, Capital Market Intermediaries, financial sector regulators, FMEs, Banks, Finance Companies, Insurance Companies, and Insurance Intermediaries in IFSC, and equivalent institutions in India or any foreign jurisdiction;
+ii) consulting firms / advisory firms / firms of Chartered Accountants / Company Secretaries / Cost Accountants in IFSC, India or any foreign jurisdiction, providing services to the institutions mentioned above in (i), in relation to a financial product; and
+iii) a company, whether private or public, if the experience is in relation to finance/ accounts/ secretarial/ law departments of such company.
+In regulation 19 of the principal regulations, in sub-regulation (3), for the proviso, the following proviso shall be substituted, namely: -
+“Provided that if a FME fails to achieve the minimum size of corpus, as specified under sub-regulation (1) of regulation 23, within the specified time period, it shall have the option to extend the validity of the placement memorandum, wherein each such extension shall be for a period of six (6) months starting from the day after the expiry of the existing validity of the placement memorandum, by filing an application at such time when the placement memorandum is still valid, accompanied by a fee equal to -
+i) for the first extension, twenty-five per cent. (25%) of the applicable fee for filing of a fresh scheme, as may be prevalent at the time of such extension; and
+ii) for each subsequent extension, fifty per cent. (50%) of the applicable fee for filing of a fresh scheme, as may be prevalent at the time of such extension.”
+In regulation 35 of the principal regulations,
+in sub-regulation (1), after the proviso, the following proviso shall be inserted, namely: -
+[भाग III—खण् ड 4]
+भारत का रािपत्र : असाधारण
+“Provided further that the investments by an open-ended scheme in unlisted securities shall be undertaken only upon achieving the minimum corpus of USD 3 Million.”
+n sub-regulation (2), after the proviso, the following proviso shall be inserted, namely: -
+“Provided further that if a FME fails to achieve the minimum size of corpus of USD 3 Million within the specified time period, it shall have the option to extend the validity of the placement memorandum, wherein each such extension shall be for a period of six (6) months starting from the day after the expiry of the existing validity of the placement memorandum, by filing an application at such time when the placement memorandum is still valid, accompanied by a fee equal to -
+i) for the first extension, twenty-five per cent. (25%) of the applicable fee for filing of a fresh scheme, as may be prevalent at the time of such extension; and
+ii) for each subsequent extension, fifty per cent. (50%) of the applicable fee for filing of a fresh scheme, as may be prevalent at the time of such extension”
+In regulation 131 of the principal regulations, in sub-regulation (1), after clause (b), the following clauses shall be inserted, namely: -
+“(c) If the FME has raised funds from the investors under the scheme but fails to achieve the minimum corpus during the validity or extended validity of the placement memorandum or offer document, as applicable, and the FME has not extended the validity thereof by making the requisite filing and payment of fee to the Authority.
+In regulation 132 of the principal regulations, for the Explanation II, the following Explanation shall be substituted, namely: -
+“Explanation II. – In case of schemes which are required to appoint custodian in IFSC in terms of the abovementioned provision, such appointment may be made within twenty four (24) months from the date of commencement of the International Financial Services Centres Authority (Fund Management) (Amendment) Regulation, 2026, during which period the FME may appoint an independent custodian in India, or any foreign jurisdiction, which is regulated by the financial sector regulator in that jurisdiction and make necessary arrangement to provide such information to Authority whenever directed to do so.”
+PRAVEEN TRIVEDI, Executive Director
+[ADVT.-III/4/Exty./640/2025-26]
+1. The International Financial Services Centres Authority (Fund Management) Regulations, 2025, the principal regulations, were published in the Gazette of India on February 13, 2025, vide F. No. IFSCA/GN/2025/002.
+International Financial Services Centres Authority (Fund Management) (Amendment) Regulations, 2025, were published in the Gazette of India on July 30, 2025, vide F. No. IFSCA/GN/2025/007.
+Uploaded by Dte. of Printing at Government of India Press, Ring Road, Mayapuri, New Delhi-110064 and Published by the Controller of Publications, Delhi-110054.</t>
         </is>
       </c>
     </row>
